--- a/va_facility_data_2025-02-20/Paragould VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Paragould%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Paragould VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Paragould%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R86aeb02a660b4aaf8a72e1fe3911190b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb1fdae12584b4cc083c77f5316b2ab05"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R051c831e1acd4d4691a5b16ca3a12504"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R356886ff93fd4568b40d018791a9e391"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5a1ed78520684888accabe1fa7d4fce8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd9a9aa0de6874ab9b932e44c4ccc9046"/>
   </x:sheets>
 </x:workbook>
 </file>
